--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H2">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I2">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J2">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>8.554232788778499</v>
+        <v>4.4255597235135</v>
       </c>
       <c r="R2">
-        <v>34.216931155114</v>
+        <v>17.702238894054</v>
       </c>
       <c r="S2">
-        <v>0.02023043448635502</v>
+        <v>0.01406013731342511</v>
       </c>
       <c r="T2">
-        <v>0.01131169482507862</v>
+        <v>0.008143858273917904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H3">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I3">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J3">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>6.173013476455998</v>
+        <v>2.607708349896</v>
       </c>
       <c r="R3">
-        <v>37.03808085873599</v>
+        <v>15.646250099376</v>
       </c>
       <c r="S3">
-        <v>0.01459894157692923</v>
+        <v>0.008284768427844069</v>
       </c>
       <c r="T3">
-        <v>0.01224433207295359</v>
+        <v>0.007198007217628919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H4">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I4">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J4">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>4.393717528988999</v>
+        <v>1.704147272347</v>
       </c>
       <c r="R4">
-        <v>26.362305173934</v>
+        <v>10.224883634082</v>
       </c>
       <c r="S4">
-        <v>0.01039097448205571</v>
+        <v>0.005414127511191994</v>
       </c>
       <c r="T4">
-        <v>0.008715052488526975</v>
+        <v>0.004703924948794811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H5">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I5">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J5">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>7.272011863916499</v>
+        <v>3.7774766041155</v>
       </c>
       <c r="R5">
-        <v>29.088047455666</v>
+        <v>15.109906416462</v>
       </c>
       <c r="S5">
-        <v>0.0171980308730839</v>
+        <v>0.01200115760949412</v>
       </c>
       <c r="T5">
-        <v>0.009616149221106327</v>
+        <v>0.006951264025092413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H6">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I6">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J6">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>6.327330902467999</v>
+        <v>1.314176197243</v>
       </c>
       <c r="R6">
-        <v>37.96398541480799</v>
+        <v>7.885057183458</v>
       </c>
       <c r="S6">
-        <v>0.01496389640737692</v>
+        <v>0.004175177591457727</v>
       </c>
       <c r="T6">
-        <v>0.01255042468330363</v>
+        <v>0.003627495288485194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H7">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I7">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J7">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>4.139224865528334</v>
+        <v>1.894064556098</v>
       </c>
       <c r="R7">
-        <v>24.83534919317</v>
+        <v>11.364387336588</v>
       </c>
       <c r="S7">
-        <v>0.009789109033391179</v>
+        <v>0.006017500475191185</v>
       </c>
       <c r="T7">
-        <v>0.008210259700786001</v>
+        <v>0.005228149975434271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J8">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>51.90152689760133</v>
+        <v>63.56316053649467</v>
       </c>
       <c r="R8">
-        <v>311.4091613856079</v>
+        <v>381.378963218968</v>
       </c>
       <c r="S8">
-        <v>0.122745132798011</v>
+        <v>0.2019420866630799</v>
       </c>
       <c r="T8">
-        <v>0.1029480225260113</v>
+        <v>0.1754521698468471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J9">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>37.45383518295466</v>
       </c>
       <c r="R9">
-        <v>337.0845166465919</v>
+        <v>337.084516646592</v>
       </c>
       <c r="S9">
-        <v>0.08857689259117059</v>
+        <v>0.1189919690358753</v>
       </c>
       <c r="T9">
-        <v>0.1114359778578652</v>
+        <v>0.1550746516489527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J10">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>26.65822337807199</v>
+        <v>24.47622299039378</v>
       </c>
       <c r="R10">
-        <v>239.924010402648</v>
+        <v>220.286006913544</v>
       </c>
       <c r="S10">
-        <v>0.06304568216569585</v>
+        <v>0.07776170194484085</v>
       </c>
       <c r="T10">
-        <v>0.07931591452724773</v>
+        <v>0.1013418715433662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J11">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>44.12184338142533</v>
+        <v>54.254911652084</v>
       </c>
       <c r="R11">
-        <v>264.731060288552</v>
+        <v>325.529469912504</v>
       </c>
       <c r="S11">
-        <v>0.1043464778181003</v>
+        <v>0.172369497964978</v>
       </c>
       <c r="T11">
-        <v>0.08751681882657757</v>
+        <v>0.1497587894286931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J12">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>38.39013306433066</v>
+        <v>18.87517010668178</v>
       </c>
       <c r="R12">
-        <v>345.511197578976</v>
+        <v>169.876530960136</v>
       </c>
       <c r="S12">
-        <v>0.09079120139204146</v>
+        <v>0.05996698725003504</v>
       </c>
       <c r="T12">
-        <v>0.1142217344958093</v>
+        <v>0.07815115367519197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J13">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>25.11412723947111</v>
+        <v>27.20395542423289</v>
       </c>
       <c r="R13">
-        <v>226.02714515524</v>
+        <v>244.835598818096</v>
       </c>
       <c r="S13">
-        <v>0.05939395365375066</v>
+        <v>0.08642779052348799</v>
       </c>
       <c r="T13">
-        <v>0.07472178251724058</v>
+        <v>0.1126358326264667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H14">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I14">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J14">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>2.337052100190167</v>
+        <v>0.792517230626</v>
       </c>
       <c r="R14">
-        <v>14.022312601141</v>
+        <v>4.755103383756</v>
       </c>
       <c r="S14">
-        <v>0.005527039136241097</v>
+        <v>0.002517851250917135</v>
       </c>
       <c r="T14">
-        <v>0.004635603355745563</v>
+        <v>0.002187570073305451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H15">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I15">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J15">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>1.686493045709333</v>
+        <v>0.4669813376959999</v>
       </c>
       <c r="R15">
-        <v>15.178437411384</v>
+        <v>4.202832039264</v>
       </c>
       <c r="S15">
-        <v>0.003988491769556806</v>
+        <v>0.001483613857006097</v>
       </c>
       <c r="T15">
-        <v>0.005017803938664178</v>
+        <v>0.001933499411102398</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H16">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I16">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J16">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>1.200381966719</v>
+        <v>0.3051740709053333</v>
       </c>
       <c r="R16">
-        <v>10.803437700471</v>
+        <v>2.746566638148</v>
       </c>
       <c r="S16">
-        <v>0.002838857596693764</v>
+        <v>0.0009695472684796156</v>
       </c>
       <c r="T16">
-        <v>0.003571483070047691</v>
+        <v>0.001263549180124416</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H17">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I17">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J17">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>1.986743991988167</v>
+        <v>0.6764602635779999</v>
       </c>
       <c r="R17">
-        <v>11.920463951929</v>
+        <v>4.058761581468</v>
       </c>
       <c r="S17">
-        <v>0.004698573812931664</v>
+        <v>0.002149134750673173</v>
       </c>
       <c r="T17">
-        <v>0.003940758152339984</v>
+        <v>0.001867220258687209</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H18">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I18">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J18">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>1.728653210561333</v>
+        <v>0.2353391086013333</v>
       </c>
       <c r="R18">
-        <v>15.557878895052</v>
+        <v>2.118051977412</v>
       </c>
       <c r="S18">
-        <v>0.004088198952425524</v>
+        <v>0.0007476794775976582</v>
       </c>
       <c r="T18">
-        <v>0.005143242606666583</v>
+        <v>0.000974403024615643</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H19">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I19">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J19">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>1.130853508900556</v>
+        <v>0.3391839429146666</v>
       </c>
       <c r="R19">
-        <v>10.177681580105</v>
+        <v>3.052655486231999</v>
       </c>
       <c r="S19">
-        <v>0.002674425444148359</v>
+        <v>0.001077597662178428</v>
       </c>
       <c r="T19">
-        <v>0.003364615825395699</v>
+        <v>0.001404364373781087</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H20">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I20">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J20">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>12.75021258881125</v>
+        <v>14.4839981459855</v>
       </c>
       <c r="R20">
-        <v>51.000850355245</v>
+        <v>57.93599258394201</v>
       </c>
       <c r="S20">
-        <v>0.03015376677653846</v>
+        <v>0.04601610090085358</v>
       </c>
       <c r="T20">
-        <v>0.01686025121372729</v>
+        <v>0.02665326772427994</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H21">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I21">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J21">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>9.200969400979998</v>
+        <v>8.534523374408</v>
       </c>
       <c r="R21">
-        <v>55.20581640587999</v>
+        <v>51.20714024644801</v>
       </c>
       <c r="S21">
-        <v>0.02175994192274756</v>
+        <v>0.02711443931289806</v>
       </c>
       <c r="T21">
-        <v>0.01825036105434898</v>
+        <v>0.02355768076996092</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H22">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I22">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J22">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>6.548902038682499</v>
+        <v>5.577343313664334</v>
       </c>
       <c r="R22">
-        <v>39.293412232095</v>
+        <v>33.464059881986</v>
       </c>
       <c r="S22">
-        <v>0.01548790369896417</v>
+        <v>0.01771938867248567</v>
       </c>
       <c r="T22">
-        <v>0.01298991676929038</v>
+        <v>0.015395033508464</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H23">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I23">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J23">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>10.83904302147625</v>
+        <v>12.3629478639315</v>
       </c>
       <c r="R23">
-        <v>43.356172085905</v>
+        <v>49.451791455726</v>
       </c>
       <c r="S23">
-        <v>0.02563392359726403</v>
+        <v>0.03927745989779372</v>
       </c>
       <c r="T23">
-        <v>0.01433301499763665</v>
+        <v>0.0227501381840491</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H24">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I24">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J24">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>9.430981844689999</v>
+        <v>4.301043663072333</v>
       </c>
       <c r="R24">
-        <v>56.58589106813999</v>
+        <v>25.806261978434</v>
       </c>
       <c r="S24">
-        <v>0.02230391258480691</v>
+        <v>0.0136645460172038</v>
       </c>
       <c r="T24">
-        <v>0.01870659669233008</v>
+        <v>0.01187208812341552</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H25">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I25">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J25">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>6.169576897370834</v>
+        <v>6.198905727820667</v>
       </c>
       <c r="R25">
-        <v>37.017461384225</v>
+        <v>37.193434366924</v>
       </c>
       <c r="S25">
-        <v>0.01459081419838387</v>
+        <v>0.01969411129242218</v>
       </c>
       <c r="T25">
-        <v>0.01223751552935228</v>
+        <v>0.01711072028895943</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H26">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I26">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J26">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>10.51001421231033</v>
+        <v>2.674913616492334</v>
       </c>
       <c r="R26">
-        <v>63.06008527386199</v>
+        <v>16.049481698954</v>
       </c>
       <c r="S26">
-        <v>0.02485578300507833</v>
+        <v>0.008498281595796442</v>
       </c>
       <c r="T26">
-        <v>0.02084688533368809</v>
+        <v>0.007383512622802921</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H27">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I27">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J27">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>7.584369162298665</v>
+        <v>1.576160984997333</v>
       </c>
       <c r="R27">
-        <v>68.25932246068798</v>
+        <v>14.185448864976</v>
       </c>
       <c r="S27">
-        <v>0.01793674397772897</v>
+        <v>0.005007511198952251</v>
       </c>
       <c r="T27">
-        <v>0.02256568893164856</v>
+        <v>0.006525970291084343</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H28">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I28">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J28">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>5.398267128658</v>
+        <v>1.030027166753556</v>
       </c>
       <c r="R28">
-        <v>48.58440415792199</v>
+        <v>9.270244500782001</v>
       </c>
       <c r="S28">
-        <v>0.01276669599515938</v>
+        <v>0.003272427513330572</v>
       </c>
       <c r="T28">
-        <v>0.01606140394652418</v>
+        <v>0.004264746274794294</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H29">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I29">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J29">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>8.934635043146333</v>
+        <v>2.283196756027</v>
       </c>
       <c r="R29">
-        <v>53.60781025887799</v>
+        <v>13.699180536162</v>
       </c>
       <c r="S29">
-        <v>0.02113007131825718</v>
+        <v>0.007253785263080851</v>
       </c>
       <c r="T29">
-        <v>0.01772207995919342</v>
+        <v>0.006302264104728091</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H30">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I30">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J30">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>7.773968671762665</v>
+        <v>0.7943193684175556</v>
       </c>
       <c r="R30">
-        <v>69.96571804586398</v>
+        <v>7.148874315758</v>
       </c>
       <c r="S30">
-        <v>0.01838513959070413</v>
+        <v>0.002523576697276464</v>
       </c>
       <c r="T30">
-        <v>0.0231298022363418</v>
+        <v>0.003288816719400408</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H31">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I31">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J31">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>5.085588998901112</v>
+        <v>1.144817692709778</v>
       </c>
       <c r="R31">
-        <v>45.77030099011</v>
+        <v>10.303359234388</v>
       </c>
       <c r="S31">
-        <v>0.01202722413654212</v>
+        <v>0.003637120491859268</v>
       </c>
       <c r="T31">
-        <v>0.01513109619635592</v>
+        <v>0.004740027397229588</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H32">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I32">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J32">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>12.0781613047245</v>
+        <v>2.654556485186833</v>
       </c>
       <c r="R32">
-        <v>72.468967828347</v>
+        <v>15.927338911121</v>
       </c>
       <c r="S32">
-        <v>0.028564391106049</v>
+        <v>0.008433606372921915</v>
       </c>
       <c r="T32">
-        <v>0.02395734569668395</v>
+        <v>0.007327321224683933</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H33">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I33">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J33">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>8.715995267591998</v>
+        <v>1.564165787869333</v>
       </c>
       <c r="R33">
-        <v>78.44395740832799</v>
+        <v>14.077492090824</v>
       </c>
       <c r="S33">
-        <v>0.02061299658289743</v>
+        <v>0.004969402094283477</v>
       </c>
       <c r="T33">
-        <v>0.02593260345446999</v>
+        <v>0.006476305123098242</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H34">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I34">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J34">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>6.203715792272999</v>
+        <v>1.022188260049222</v>
       </c>
       <c r="R34">
-        <v>55.83344213045699</v>
+        <v>9.199694340443001</v>
       </c>
       <c r="S34">
-        <v>0.01467155138356555</v>
+        <v>0.003247523069252127</v>
       </c>
       <c r="T34">
-        <v>0.01845784636706157</v>
+        <v>0.004232289899618157</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H35">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I35">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J35">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>10.2677276233905</v>
+        <v>2.2658207421355</v>
       </c>
       <c r="R35">
-        <v>61.606365740343</v>
+        <v>13.594924452813</v>
       </c>
       <c r="S35">
-        <v>0.02428278445744761</v>
+        <v>0.007198581140543212</v>
       </c>
       <c r="T35">
-        <v>0.02036630361085977</v>
+        <v>0.006254301427686531</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H36">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I36">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J36">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>8.933883979475999</v>
+        <v>0.7882742895852221</v>
       </c>
       <c r="R36">
-        <v>80.404955815284</v>
+        <v>7.094468606266999</v>
       </c>
       <c r="S36">
-        <v>0.0211282950813049</v>
+        <v>0.002504371298691173</v>
       </c>
       <c r="T36">
-        <v>0.02658088530743319</v>
+        <v>0.003263787547099751</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H37">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I37">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J37">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>5.844384509615001</v>
+        <v>1.136105185529111</v>
       </c>
       <c r="R37">
-        <v>52.59946058653501</v>
+        <v>10.224946669762</v>
       </c>
       <c r="S37">
-        <v>0.01382174659660129</v>
+        <v>0.003609440592601887</v>
       </c>
       <c r="T37">
-        <v>0.0173887320116874</v>
+        <v>0.004703953948157386</v>
       </c>
     </row>
   </sheetData>
